--- a/all_times_2/Rolling_monthly_reports/ all_times_2_Rolling_Monthly_Report_TR3000_DD3000_SZ1_DYN_False_TDDTrue.xlsx
+++ b/all_times_2/Rolling_monthly_reports/ all_times_2_Rolling_Monthly_Report_TR3000_DD3000_SZ1_DYN_False_TDDTrue.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
   <si>
     <t>2019-05</t>
   </si>
@@ -242,6 +242,9 @@
   </si>
   <si>
     <t>2025-08</t>
+  </si>
+  <si>
+    <t>2025-09</t>
   </si>
   <si>
     <t>TARGETS STATISTICS</t>
@@ -681,7 +684,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BY21"/>
+  <dimension ref="A1:BZ21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -690,7 +693,7 @@
     <col min="1" max="1" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:77">
+    <row r="1" spans="1:78">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -919,15 +922,18 @@
       <c r="BY1" s="1" t="s">
         <v>75</v>
       </c>
+      <c r="BZ1" s="1" t="s">
+        <v>76</v>
+      </c>
     </row>
-    <row r="2" spans="1:77">
+    <row r="2" spans="1:78">
       <c r="A2" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:77">
+    <row r="3" spans="1:78">
       <c r="A3" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1145,10 +1151,13 @@
       <c r="BU3">
         <v>1</v>
       </c>
+      <c r="BV3">
+        <v>91</v>
+      </c>
     </row>
-    <row r="4" spans="1:77">
+    <row r="4" spans="1:78">
       <c r="A4" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B4">
         <v>324</v>
@@ -1322,287 +1331,293 @@
         <v>125</v>
       </c>
       <c r="BG4">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="BH4">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="BI4">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="BJ4">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="BK4">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="BL4">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="BM4">
-        <v>94</v>
+        <v>119</v>
       </c>
       <c r="BN4">
-        <v>94</v>
+        <v>119</v>
       </c>
       <c r="BO4">
-        <v>94</v>
+        <v>119</v>
       </c>
       <c r="BP4">
-        <v>94</v>
+        <v>119</v>
       </c>
       <c r="BQ4">
-        <v>94</v>
+        <v>119</v>
       </c>
       <c r="BR4">
-        <v>94</v>
+        <v>119</v>
       </c>
       <c r="BS4">
-        <v>94</v>
+        <v>119</v>
       </c>
       <c r="BT4">
-        <v>94</v>
+        <v>119</v>
       </c>
       <c r="BU4">
-        <v>94</v>
+        <v>119</v>
+      </c>
+      <c r="BV4">
+        <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:77" s="2" customFormat="1">
+    <row r="5" spans="1:78" s="2" customFormat="1">
       <c r="A5" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B5" s="2">
-        <v>112.37</v>
+        <v>112.34</v>
       </c>
       <c r="C5" s="2">
-        <v>112.45</v>
+        <v>112.42</v>
       </c>
       <c r="D5" s="2">
-        <v>112.67</v>
+        <v>112.63</v>
       </c>
       <c r="E5" s="2">
-        <v>112.61</v>
+        <v>112.57</v>
       </c>
       <c r="F5" s="2">
-        <v>112.55</v>
+        <v>112.51</v>
       </c>
       <c r="G5" s="2">
-        <v>112.55</v>
+        <v>112.51</v>
       </c>
       <c r="H5" s="2">
-        <v>112.55</v>
+        <v>112.51</v>
       </c>
       <c r="I5" s="2">
-        <v>112.55</v>
+        <v>112.51</v>
       </c>
       <c r="J5" s="2">
-        <v>112.55</v>
+        <v>112.51</v>
       </c>
       <c r="K5" s="2">
-        <v>112.55</v>
+        <v>112.51</v>
       </c>
       <c r="L5" s="2">
-        <v>112.53</v>
+        <v>112.49</v>
       </c>
       <c r="M5" s="2">
-        <v>113.36</v>
+        <v>113.31</v>
       </c>
       <c r="N5" s="2">
-        <v>114.55</v>
+        <v>114.49</v>
       </c>
       <c r="O5" s="2">
-        <v>115.1</v>
+        <v>115.03</v>
       </c>
       <c r="P5" s="2">
-        <v>114.72</v>
+        <v>114.65</v>
       </c>
       <c r="Q5" s="2">
-        <v>113.86</v>
+        <v>113.81</v>
       </c>
       <c r="R5" s="2">
-        <v>113.06</v>
+        <v>113.01</v>
       </c>
       <c r="S5" s="2">
-        <v>112.16</v>
+        <v>112.12</v>
       </c>
       <c r="T5" s="2">
-        <v>111.86</v>
+        <v>111.83</v>
       </c>
       <c r="U5" s="2">
-        <v>111.18</v>
+        <v>111.15</v>
       </c>
       <c r="V5" s="2">
         <v>109.3</v>
       </c>
       <c r="W5" s="2">
-        <v>107.89</v>
+        <v>107.91</v>
       </c>
       <c r="X5" s="2">
-        <v>106.68</v>
+        <v>106.71</v>
       </c>
       <c r="Y5" s="2">
-        <v>105.82</v>
+        <v>105.87</v>
       </c>
       <c r="Z5" s="2">
-        <v>104.93</v>
+        <v>104.99</v>
       </c>
       <c r="AA5" s="2">
-        <v>104.49</v>
+        <v>104.56</v>
       </c>
       <c r="AB5" s="2">
-        <v>104.63</v>
+        <v>104.7</v>
       </c>
       <c r="AC5" s="2">
-        <v>105.14</v>
+        <v>105.21</v>
       </c>
       <c r="AD5" s="2">
-        <v>105.9</v>
+        <v>105.95</v>
       </c>
       <c r="AE5" s="2">
-        <v>105.98</v>
+        <v>106.04</v>
       </c>
       <c r="AF5" s="2">
-        <v>106.33</v>
+        <v>106.38</v>
       </c>
       <c r="AG5" s="2">
-        <v>106.94</v>
+        <v>106.98</v>
       </c>
       <c r="AH5" s="2">
-        <v>108.03</v>
+        <v>108.05</v>
       </c>
       <c r="AI5" s="2">
-        <v>109.92</v>
+        <v>109.91</v>
       </c>
       <c r="AJ5" s="2">
-        <v>111.65</v>
+        <v>111.61</v>
       </c>
       <c r="AK5" s="2">
-        <v>112.33</v>
+        <v>112.27</v>
       </c>
       <c r="AL5" s="2">
-        <v>113.09</v>
+        <v>113.02</v>
       </c>
       <c r="AM5" s="2">
-        <v>114.46</v>
+        <v>114.36</v>
       </c>
       <c r="AN5" s="2">
-        <v>116.22</v>
+        <v>116.08</v>
       </c>
       <c r="AO5" s="2">
-        <v>118.23</v>
+        <v>118.04</v>
       </c>
       <c r="AP5" s="2">
-        <v>119.85</v>
+        <v>119.62</v>
       </c>
       <c r="AQ5" s="2">
-        <v>121.23</v>
+        <v>120.97</v>
       </c>
       <c r="AR5" s="2">
-        <v>122.87</v>
+        <v>122.56</v>
       </c>
       <c r="AS5" s="2">
-        <v>125.3</v>
+        <v>124.92</v>
       </c>
       <c r="AT5" s="2">
-        <v>128.34</v>
+        <v>127.87</v>
       </c>
       <c r="AU5" s="2">
-        <v>130.8</v>
+        <v>130.24</v>
       </c>
       <c r="AV5" s="2">
-        <v>127.02</v>
+        <v>126.55</v>
       </c>
       <c r="AW5" s="2">
-        <v>119.14</v>
+        <v>118.86</v>
       </c>
       <c r="AX5" s="2">
-        <v>111.89</v>
+        <v>111.82</v>
       </c>
       <c r="AY5" s="2">
-        <v>104.21</v>
+        <v>104.36</v>
       </c>
       <c r="AZ5" s="2">
-        <v>96.95</v>
+        <v>97.34</v>
       </c>
       <c r="BA5" s="2">
-        <v>89.89</v>
+        <v>90.54000000000001</v>
       </c>
       <c r="BB5" s="2">
-        <v>82.51000000000001</v>
+        <v>83.44</v>
       </c>
       <c r="BC5" s="2">
-        <v>76.04000000000001</v>
+        <v>77.26000000000001</v>
       </c>
       <c r="BD5" s="2">
-        <v>70.22</v>
+        <v>71.73999999999999</v>
       </c>
       <c r="BE5" s="2">
-        <v>65.79000000000001</v>
+        <v>67.58</v>
       </c>
       <c r="BF5" s="2">
-        <v>61.99</v>
+        <v>64.05</v>
       </c>
       <c r="BG5" s="2">
-        <v>58.41</v>
+        <v>60.77</v>
       </c>
       <c r="BH5" s="2">
-        <v>55.63</v>
+        <v>58.29</v>
       </c>
       <c r="BI5" s="2">
-        <v>54.16</v>
+        <v>57.1</v>
       </c>
       <c r="BJ5" s="2">
-        <v>54.11</v>
+        <v>57.29</v>
       </c>
       <c r="BK5" s="2">
-        <v>55.47</v>
+        <v>58.88</v>
       </c>
       <c r="BL5" s="2">
-        <v>55.09</v>
+        <v>58.84</v>
       </c>
       <c r="BM5" s="2">
-        <v>53.74</v>
+        <v>58.04</v>
       </c>
       <c r="BN5" s="2">
-        <v>52.46</v>
+        <v>57.42</v>
       </c>
       <c r="BO5" s="2">
-        <v>48.5</v>
+        <v>54.54</v>
       </c>
       <c r="BP5" s="2">
-        <v>43.3</v>
+        <v>51.04</v>
       </c>
       <c r="BQ5" s="2">
-        <v>40.91</v>
+        <v>50.5</v>
       </c>
       <c r="BR5" s="2">
-        <v>38.87</v>
+        <v>51.16</v>
       </c>
       <c r="BS5" s="2">
-        <v>30.61</v>
+        <v>49.06</v>
       </c>
       <c r="BT5" s="2">
-        <v>22.28</v>
+        <v>51.95</v>
       </c>
       <c r="BU5" s="2">
-        <v>20.75</v>
+        <v>78.52</v>
+      </c>
+      <c r="BV5" s="2">
+        <v>102.5</v>
       </c>
     </row>
-    <row r="6" spans="1:77">
+    <row r="6" spans="1:78">
       <c r="A6" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B6">
+        <v>91</v>
+      </c>
+      <c r="C6">
+        <v>91</v>
+      </c>
+      <c r="D6">
         <v>90</v>
       </c>
-      <c r="C6">
-        <v>90</v>
-      </c>
-      <c r="D6">
+      <c r="E6">
         <v>89</v>
-      </c>
-      <c r="E6">
-        <v>88</v>
       </c>
       <c r="F6">
         <v>88</v>
@@ -1626,16 +1641,16 @@
         <v>88</v>
       </c>
       <c r="M6">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N6">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O6">
+        <v>91</v>
+      </c>
+      <c r="P6">
         <v>90</v>
-      </c>
-      <c r="P6">
-        <v>89</v>
       </c>
       <c r="Q6">
         <v>88</v>
@@ -1644,395 +1659,401 @@
         <v>87</v>
       </c>
       <c r="S6">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="T6">
         <v>85</v>
       </c>
       <c r="U6">
-        <v>84</v>
+        <v>84.5</v>
       </c>
       <c r="V6">
+        <v>83</v>
+      </c>
+      <c r="W6">
         <v>82</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>81</v>
-      </c>
-      <c r="X6">
-        <v>80</v>
       </c>
       <c r="Y6">
         <v>79</v>
       </c>
       <c r="Z6">
+        <v>78</v>
+      </c>
+      <c r="AA6">
         <v>77</v>
-      </c>
-      <c r="AA6">
-        <v>76</v>
       </c>
       <c r="AB6">
         <v>76</v>
       </c>
       <c r="AC6">
+        <v>76</v>
+      </c>
+      <c r="AD6">
+        <v>76.5</v>
+      </c>
+      <c r="AE6">
         <v>75</v>
       </c>
-      <c r="AD6">
+      <c r="AF6">
+        <v>74</v>
+      </c>
+      <c r="AG6">
+        <v>73</v>
+      </c>
+      <c r="AH6">
+        <v>74</v>
+      </c>
+      <c r="AI6">
+        <v>75</v>
+      </c>
+      <c r="AJ6">
         <v>76</v>
       </c>
-      <c r="AE6">
+      <c r="AK6">
+        <v>75</v>
+      </c>
+      <c r="AL6">
         <v>74</v>
       </c>
-      <c r="AF6">
+      <c r="AM6">
+        <v>75</v>
+      </c>
+      <c r="AN6">
+        <v>77</v>
+      </c>
+      <c r="AO6">
+        <v>79</v>
+      </c>
+      <c r="AP6">
+        <v>81</v>
+      </c>
+      <c r="AQ6">
+        <v>81</v>
+      </c>
+      <c r="AR6">
+        <v>85</v>
+      </c>
+      <c r="AS6">
+        <v>87</v>
+      </c>
+      <c r="AT6">
+        <v>89</v>
+      </c>
+      <c r="AU6">
+        <v>91.5</v>
+      </c>
+      <c r="AV6">
+        <v>88</v>
+      </c>
+      <c r="AW6">
+        <v>87</v>
+      </c>
+      <c r="AX6">
+        <v>83</v>
+      </c>
+      <c r="AY6">
+        <v>79.5</v>
+      </c>
+      <c r="AZ6">
+        <v>76</v>
+      </c>
+      <c r="BA6">
         <v>73</v>
       </c>
-      <c r="AG6">
-        <v>72</v>
-      </c>
-      <c r="AH6">
-        <v>73</v>
-      </c>
-      <c r="AI6">
-        <v>74</v>
-      </c>
-      <c r="AJ6">
-        <v>75</v>
-      </c>
-      <c r="AK6">
-        <v>74</v>
-      </c>
-      <c r="AL6">
-        <v>73</v>
-      </c>
-      <c r="AM6">
-        <v>74</v>
-      </c>
-      <c r="AN6">
-        <v>75.5</v>
-      </c>
-      <c r="AO6">
-        <v>77</v>
-      </c>
-      <c r="AP6">
-        <v>79</v>
-      </c>
-      <c r="AQ6">
-        <v>79</v>
-      </c>
-      <c r="AR6">
+      <c r="BB6">
+        <v>70</v>
+      </c>
+      <c r="BC6">
+        <v>67</v>
+      </c>
+      <c r="BD6">
+        <v>65</v>
+      </c>
+      <c r="BE6">
+        <v>63</v>
+      </c>
+      <c r="BF6">
+        <v>61</v>
+      </c>
+      <c r="BG6">
+        <v>60</v>
+      </c>
+      <c r="BH6">
+        <v>57.5</v>
+      </c>
+      <c r="BI6">
+        <v>55.5</v>
+      </c>
+      <c r="BJ6">
+        <v>56</v>
+      </c>
+      <c r="BK6">
+        <v>58</v>
+      </c>
+      <c r="BL6">
+        <v>58</v>
+      </c>
+      <c r="BM6">
+        <v>57</v>
+      </c>
+      <c r="BN6">
+        <v>56.5</v>
+      </c>
+      <c r="BO6">
+        <v>52</v>
+      </c>
+      <c r="BP6">
+        <v>48</v>
+      </c>
+      <c r="BQ6">
+        <v>46</v>
+      </c>
+      <c r="BR6">
+        <v>45.5</v>
+      </c>
+      <c r="BS6">
+        <v>39</v>
+      </c>
+      <c r="BT6">
+        <v>24.5</v>
+      </c>
+      <c r="BU6">
+        <v>105</v>
+      </c>
+      <c r="BV6">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:78">
+      <c r="A7" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AS6">
-        <v>85</v>
-      </c>
-      <c r="AT6">
-        <v>87</v>
-      </c>
-      <c r="AU6">
-        <v>89</v>
-      </c>
-      <c r="AV6">
-        <v>87</v>
-      </c>
-      <c r="AW6">
-        <v>84.5</v>
-      </c>
-      <c r="AX6">
-        <v>81</v>
-      </c>
-      <c r="AY6">
-        <v>77</v>
-      </c>
-      <c r="AZ6">
-        <v>74</v>
-      </c>
-      <c r="BA6">
-        <v>70.5</v>
-      </c>
-      <c r="BB6">
-        <v>68</v>
-      </c>
-      <c r="BC6">
-        <v>66</v>
-      </c>
-      <c r="BD6">
-        <v>63.5</v>
-      </c>
-      <c r="BE6">
-        <v>61</v>
-      </c>
-      <c r="BF6">
-        <v>60</v>
-      </c>
-      <c r="BG6">
-        <v>58</v>
-      </c>
-      <c r="BH6">
-        <v>56</v>
-      </c>
-      <c r="BI6">
-        <v>54</v>
-      </c>
-      <c r="BJ6">
-        <v>54</v>
-      </c>
-      <c r="BK6">
-        <v>57</v>
-      </c>
-      <c r="BL6">
-        <v>55.5</v>
-      </c>
-      <c r="BM6">
-        <v>54</v>
-      </c>
-      <c r="BN6">
-        <v>53</v>
-      </c>
-      <c r="BO6">
-        <v>49</v>
-      </c>
-      <c r="BP6">
-        <v>46</v>
-      </c>
-      <c r="BQ6">
-        <v>42.5</v>
-      </c>
-      <c r="BR6">
-        <v>40</v>
-      </c>
-      <c r="BS6">
-        <v>26</v>
-      </c>
-      <c r="BT6">
-        <v>22</v>
-      </c>
-      <c r="BU6">
-        <v>12</v>
+      <c r="B7">
+        <v>70.59</v>
+      </c>
+      <c r="C7">
+        <v>70.73</v>
+      </c>
+      <c r="D7">
+        <v>71.20999999999999</v>
+      </c>
+      <c r="E7">
+        <v>71.81</v>
+      </c>
+      <c r="F7">
+        <v>72.04000000000001</v>
+      </c>
+      <c r="G7">
+        <v>72.04000000000001</v>
+      </c>
+      <c r="H7">
+        <v>72.04000000000001</v>
+      </c>
+      <c r="I7">
+        <v>72.04000000000001</v>
+      </c>
+      <c r="J7">
+        <v>72.04000000000001</v>
+      </c>
+      <c r="K7">
+        <v>72.04000000000001</v>
+      </c>
+      <c r="L7">
+        <v>72.19</v>
+      </c>
+      <c r="M7">
+        <v>72.47</v>
+      </c>
+      <c r="N7">
+        <v>72.45999999999999</v>
+      </c>
+      <c r="O7">
+        <v>72.89</v>
+      </c>
+      <c r="P7">
+        <v>73.45</v>
+      </c>
+      <c r="Q7">
+        <v>73.81999999999999</v>
+      </c>
+      <c r="R7">
+        <v>74.2</v>
+      </c>
+      <c r="S7">
+        <v>74.54000000000001</v>
+      </c>
+      <c r="T7">
+        <v>75.20999999999999</v>
+      </c>
+      <c r="U7">
+        <v>75.51000000000001</v>
+      </c>
+      <c r="V7">
+        <v>75.06999999999999</v>
+      </c>
+      <c r="W7">
+        <v>75.01000000000001</v>
+      </c>
+      <c r="X7">
+        <v>75.17</v>
+      </c>
+      <c r="Y7">
+        <v>75.7</v>
+      </c>
+      <c r="Z7">
+        <v>76.25</v>
+      </c>
+      <c r="AA7">
+        <v>76.95999999999999</v>
+      </c>
+      <c r="AB7">
+        <v>77.8</v>
+      </c>
+      <c r="AC7">
+        <v>78.59999999999999</v>
+      </c>
+      <c r="AD7">
+        <v>79.31999999999999</v>
+      </c>
+      <c r="AE7">
+        <v>80.22</v>
+      </c>
+      <c r="AF7">
+        <v>81.12</v>
+      </c>
+      <c r="AG7">
+        <v>82.03</v>
+      </c>
+      <c r="AH7">
+        <v>82.78</v>
+      </c>
+      <c r="AI7">
+        <v>82.94</v>
+      </c>
+      <c r="AJ7">
+        <v>83.16</v>
+      </c>
+      <c r="AK7">
+        <v>84.22</v>
+      </c>
+      <c r="AL7">
+        <v>85.16</v>
+      </c>
+      <c r="AM7">
+        <v>86.02</v>
+      </c>
+      <c r="AN7">
+        <v>86.69</v>
+      </c>
+      <c r="AO7">
+        <v>87.19</v>
+      </c>
+      <c r="AP7">
+        <v>88.17</v>
+      </c>
+      <c r="AQ7">
+        <v>89.28</v>
+      </c>
+      <c r="AR7">
+        <v>90.28</v>
+      </c>
+      <c r="AS7">
+        <v>90.95999999999999</v>
+      </c>
+      <c r="AT7">
+        <v>91.11</v>
+      </c>
+      <c r="AU7">
+        <v>91.7</v>
+      </c>
+      <c r="AV7">
+        <v>89.56</v>
+      </c>
+      <c r="AW7">
+        <v>83.15000000000001</v>
+      </c>
+      <c r="AX7">
+        <v>76.41</v>
+      </c>
+      <c r="AY7">
+        <v>69.65000000000001</v>
+      </c>
+      <c r="AZ7">
+        <v>62.94</v>
+      </c>
+      <c r="BA7">
+        <v>55.67</v>
+      </c>
+      <c r="BB7">
+        <v>47.63</v>
+      </c>
+      <c r="BC7">
+        <v>39.98</v>
+      </c>
+      <c r="BD7">
+        <v>33.31</v>
+      </c>
+      <c r="BE7">
+        <v>29.47</v>
+      </c>
+      <c r="BF7">
+        <v>26.28</v>
+      </c>
+      <c r="BG7">
+        <v>23.82</v>
+      </c>
+      <c r="BH7">
+        <v>22.57</v>
+      </c>
+      <c r="BI7">
+        <v>22.84</v>
+      </c>
+      <c r="BJ7">
+        <v>23.7</v>
+      </c>
+      <c r="BK7">
+        <v>24.13</v>
+      </c>
+      <c r="BL7">
+        <v>25.13</v>
+      </c>
+      <c r="BM7">
+        <v>25.51</v>
+      </c>
+      <c r="BN7">
+        <v>25.75</v>
+      </c>
+      <c r="BO7">
+        <v>25.97</v>
+      </c>
+      <c r="BP7">
+        <v>26.58</v>
+      </c>
+      <c r="BQ7">
+        <v>28.97</v>
+      </c>
+      <c r="BR7">
+        <v>31.93</v>
+      </c>
+      <c r="BS7">
+        <v>36.67</v>
+      </c>
+      <c r="BT7">
+        <v>43.96</v>
+      </c>
+      <c r="BU7">
+        <v>46.88</v>
+      </c>
+      <c r="BV7">
+        <v>7.94</v>
       </c>
     </row>
-    <row r="7" spans="1:77">
-      <c r="A7" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B7">
-        <v>70.95999999999999</v>
-      </c>
-      <c r="C7">
-        <v>71.11</v>
-      </c>
-      <c r="D7">
-        <v>71.59999999999999</v>
-      </c>
-      <c r="E7">
-        <v>72.20999999999999</v>
-      </c>
-      <c r="F7">
-        <v>72.44</v>
-      </c>
-      <c r="G7">
-        <v>72.44</v>
-      </c>
-      <c r="H7">
-        <v>72.44</v>
-      </c>
-      <c r="I7">
-        <v>72.44</v>
-      </c>
-      <c r="J7">
-        <v>72.44</v>
-      </c>
-      <c r="K7">
-        <v>72.44</v>
-      </c>
-      <c r="L7">
-        <v>72.59</v>
-      </c>
-      <c r="M7">
-        <v>72.88</v>
-      </c>
-      <c r="N7">
-        <v>72.87</v>
-      </c>
-      <c r="O7">
-        <v>73.31</v>
-      </c>
-      <c r="P7">
-        <v>73.88</v>
-      </c>
-      <c r="Q7">
-        <v>74.27</v>
-      </c>
-      <c r="R7">
-        <v>74.66</v>
-      </c>
-      <c r="S7">
-        <v>75.01000000000001</v>
-      </c>
-      <c r="T7">
-        <v>75.69</v>
-      </c>
-      <c r="U7">
-        <v>76</v>
-      </c>
-      <c r="V7">
-        <v>75.56999999999999</v>
-      </c>
-      <c r="W7">
-        <v>75.52</v>
-      </c>
-      <c r="X7">
-        <v>75.7</v>
-      </c>
-      <c r="Y7">
-        <v>76.23</v>
-      </c>
-      <c r="Z7">
-        <v>76.8</v>
-      </c>
-      <c r="AA7">
-        <v>77.53</v>
-      </c>
-      <c r="AB7">
-        <v>78.39</v>
-      </c>
-      <c r="AC7">
-        <v>79.20999999999999</v>
-      </c>
-      <c r="AD7">
-        <v>79.95</v>
-      </c>
-      <c r="AE7">
-        <v>80.88</v>
-      </c>
-      <c r="AF7">
-        <v>81.79000000000001</v>
-      </c>
-      <c r="AG7">
-        <v>82.73</v>
-      </c>
-      <c r="AH7">
-        <v>83.51000000000001</v>
-      </c>
-      <c r="AI7">
-        <v>83.69</v>
-      </c>
-      <c r="AJ7">
-        <v>83.93000000000001</v>
-      </c>
-      <c r="AK7">
-        <v>85.02</v>
-      </c>
-      <c r="AL7">
-        <v>85.98999999999999</v>
-      </c>
-      <c r="AM7">
-        <v>86.88</v>
-      </c>
-      <c r="AN7">
-        <v>87.58</v>
-      </c>
-      <c r="AO7">
-        <v>88.11</v>
-      </c>
-      <c r="AP7">
-        <v>89.13</v>
-      </c>
-      <c r="AQ7">
-        <v>90.28</v>
-      </c>
-      <c r="AR7">
-        <v>91.31</v>
-      </c>
-      <c r="AS7">
-        <v>92.03</v>
-      </c>
-      <c r="AT7">
-        <v>92.20999999999999</v>
-      </c>
-      <c r="AU7">
-        <v>92.83</v>
-      </c>
-      <c r="AV7">
-        <v>90.72</v>
-      </c>
-      <c r="AW7">
-        <v>84.31</v>
-      </c>
-      <c r="AX7">
-        <v>77.53</v>
-      </c>
-      <c r="AY7">
-        <v>70.70999999999999</v>
-      </c>
-      <c r="AZ7">
-        <v>63.91</v>
-      </c>
-      <c r="BA7">
-        <v>56.49</v>
-      </c>
-      <c r="BB7">
-        <v>48.21</v>
-      </c>
-      <c r="BC7">
-        <v>40.2</v>
-      </c>
-      <c r="BD7">
-        <v>33.05</v>
-      </c>
-      <c r="BE7">
-        <v>28.73</v>
-      </c>
-      <c r="BF7">
-        <v>24.93</v>
-      </c>
-      <c r="BG7">
-        <v>21.71</v>
-      </c>
-      <c r="BH7">
-        <v>19.74</v>
-      </c>
-      <c r="BI7">
-        <v>19.63</v>
-      </c>
-      <c r="BJ7">
-        <v>20.4</v>
-      </c>
-      <c r="BK7">
-        <v>20.81</v>
-      </c>
-      <c r="BL7">
-        <v>21.68</v>
-      </c>
-      <c r="BM7">
-        <v>21.46</v>
-      </c>
-      <c r="BN7">
-        <v>20.91</v>
-      </c>
-      <c r="BO7">
-        <v>19.3</v>
-      </c>
-      <c r="BP7">
-        <v>16.67</v>
-      </c>
-      <c r="BQ7">
-        <v>17.46</v>
-      </c>
-      <c r="BR7">
-        <v>18.63</v>
-      </c>
-      <c r="BS7">
-        <v>16.24</v>
-      </c>
-      <c r="BT7">
-        <v>16.15</v>
-      </c>
-      <c r="BU7">
-        <v>30.57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:77">
+    <row r="8" spans="1:78">
       <c r="A8" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B8">
         <v>87</v>
@@ -2248,714 +2269,726 @@
         <v>23</v>
       </c>
       <c r="BU8">
-        <v>1</v>
+        <v>106</v>
+      </c>
+      <c r="BV8">
+        <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:77">
+    <row r="9" spans="1:78">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:77">
+    <row r="10" spans="1:78">
       <c r="A10" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B10">
-        <v>1615</v>
+        <v>1649</v>
       </c>
       <c r="C10">
-        <v>1609</v>
+        <v>1643</v>
       </c>
       <c r="D10">
-        <v>1589</v>
+        <v>1623</v>
       </c>
       <c r="E10">
-        <v>1566</v>
+        <v>1600</v>
       </c>
       <c r="F10">
-        <v>1544</v>
+        <v>1578</v>
       </c>
       <c r="G10">
-        <v>1523</v>
+        <v>1557</v>
       </c>
       <c r="H10">
-        <v>1500</v>
+        <v>1534</v>
       </c>
       <c r="I10">
-        <v>1479</v>
+        <v>1513</v>
       </c>
       <c r="J10">
-        <v>1458</v>
+        <v>1492</v>
       </c>
       <c r="K10">
-        <v>1436</v>
+        <v>1470</v>
       </c>
       <c r="L10">
-        <v>1416</v>
+        <v>1450</v>
       </c>
       <c r="M10">
-        <v>1394</v>
+        <v>1428</v>
       </c>
       <c r="N10">
-        <v>1373</v>
+        <v>1407</v>
       </c>
       <c r="O10">
+        <v>1386</v>
+      </c>
+      <c r="P10">
+        <v>1364</v>
+      </c>
+      <c r="Q10">
+        <v>1341</v>
+      </c>
+      <c r="R10">
+        <v>1320</v>
+      </c>
+      <c r="S10">
+        <v>1298</v>
+      </c>
+      <c r="T10">
+        <v>1276</v>
+      </c>
+      <c r="U10">
+        <v>1255</v>
+      </c>
+      <c r="V10">
+        <v>1233</v>
+      </c>
+      <c r="W10">
+        <v>1213</v>
+      </c>
+      <c r="X10">
+        <v>1193</v>
+      </c>
+      <c r="Y10">
+        <v>1170</v>
+      </c>
+      <c r="Z10">
+        <v>1148</v>
+      </c>
+      <c r="AA10">
+        <v>1127</v>
+      </c>
+      <c r="AB10">
+        <v>1105</v>
+      </c>
+      <c r="AC10">
+        <v>1083</v>
+      </c>
+      <c r="AD10">
+        <v>1061</v>
+      </c>
+      <c r="AE10">
+        <v>1039</v>
+      </c>
+      <c r="AF10">
+        <v>1018</v>
+      </c>
+      <c r="AG10">
+        <v>996</v>
+      </c>
+      <c r="AH10">
+        <v>974</v>
+      </c>
+      <c r="AI10">
+        <v>953</v>
+      </c>
+      <c r="AJ10">
+        <v>933</v>
+      </c>
+      <c r="AK10">
+        <v>910</v>
+      </c>
+      <c r="AL10">
+        <v>890</v>
+      </c>
+      <c r="AM10">
+        <v>868</v>
+      </c>
+      <c r="AN10">
+        <v>846</v>
+      </c>
+      <c r="AO10">
+        <v>825</v>
+      </c>
+      <c r="AP10">
+        <v>802</v>
+      </c>
+      <c r="AQ10">
+        <v>780</v>
+      </c>
+      <c r="AR10">
+        <v>759</v>
+      </c>
+      <c r="AS10">
+        <v>737</v>
+      </c>
+      <c r="AT10">
+        <v>716</v>
+      </c>
+      <c r="AU10">
+        <v>695</v>
+      </c>
+      <c r="AV10">
+        <v>675</v>
+      </c>
+      <c r="AW10">
+        <v>652</v>
+      </c>
+      <c r="AX10">
+        <v>632</v>
+      </c>
+      <c r="AY10">
+        <v>609</v>
+      </c>
+      <c r="AZ10">
+        <v>587</v>
+      </c>
+      <c r="BA10">
+        <v>566</v>
+      </c>
+      <c r="BB10">
+        <v>543</v>
+      </c>
+      <c r="BC10">
+        <v>522</v>
+      </c>
+      <c r="BD10">
+        <v>500</v>
+      </c>
+      <c r="BE10">
+        <v>478</v>
+      </c>
+      <c r="BF10">
+        <v>458</v>
+      </c>
+      <c r="BG10">
+        <v>436</v>
+      </c>
+      <c r="BH10">
+        <v>415</v>
+      </c>
+      <c r="BI10">
+        <v>395</v>
+      </c>
+      <c r="BJ10">
+        <v>373</v>
+      </c>
+      <c r="BK10">
+        <v>350</v>
+      </c>
+      <c r="BL10">
+        <v>330</v>
+      </c>
+      <c r="BM10">
+        <v>307</v>
+      </c>
+      <c r="BN10">
+        <v>285</v>
+      </c>
+      <c r="BO10">
+        <v>264</v>
+      </c>
+      <c r="BP10">
+        <v>241</v>
+      </c>
+      <c r="BQ10">
+        <v>220</v>
+      </c>
+      <c r="BR10">
+        <v>199</v>
+      </c>
+      <c r="BS10">
+        <v>177</v>
+      </c>
+      <c r="BT10">
+        <v>157</v>
+      </c>
+      <c r="BU10">
+        <v>136</v>
+      </c>
+      <c r="BV10">
+        <v>115</v>
+      </c>
+      <c r="BW10">
+        <v>93</v>
+      </c>
+      <c r="BX10">
+        <v>72</v>
+      </c>
+      <c r="BY10">
+        <v>49</v>
+      </c>
+      <c r="BZ10">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:78">
+      <c r="A11" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11">
+        <v>1536</v>
+      </c>
+      <c r="C11">
+        <v>1530</v>
+      </c>
+      <c r="D11">
+        <v>1510</v>
+      </c>
+      <c r="E11">
+        <v>1487</v>
+      </c>
+      <c r="F11">
+        <v>1465</v>
+      </c>
+      <c r="G11">
+        <v>1444</v>
+      </c>
+      <c r="H11">
+        <v>1421</v>
+      </c>
+      <c r="I11">
+        <v>1400</v>
+      </c>
+      <c r="J11">
+        <v>1379</v>
+      </c>
+      <c r="K11">
+        <v>1357</v>
+      </c>
+      <c r="L11">
+        <v>1337</v>
+      </c>
+      <c r="M11">
+        <v>1315</v>
+      </c>
+      <c r="N11">
+        <v>1294</v>
+      </c>
+      <c r="O11">
+        <v>1273</v>
+      </c>
+      <c r="P11">
+        <v>1251</v>
+      </c>
+      <c r="Q11">
+        <v>1228</v>
+      </c>
+      <c r="R11">
+        <v>1207</v>
+      </c>
+      <c r="S11">
+        <v>1185</v>
+      </c>
+      <c r="T11">
+        <v>1163</v>
+      </c>
+      <c r="U11">
+        <v>1142</v>
+      </c>
+      <c r="V11">
+        <v>1120</v>
+      </c>
+      <c r="W11">
+        <v>1100</v>
+      </c>
+      <c r="X11">
+        <v>1080</v>
+      </c>
+      <c r="Y11">
+        <v>1057</v>
+      </c>
+      <c r="Z11">
+        <v>1035</v>
+      </c>
+      <c r="AA11">
+        <v>1014</v>
+      </c>
+      <c r="AB11">
+        <v>992</v>
+      </c>
+      <c r="AC11">
+        <v>970</v>
+      </c>
+      <c r="AD11">
+        <v>948</v>
+      </c>
+      <c r="AE11">
+        <v>926</v>
+      </c>
+      <c r="AF11">
+        <v>905</v>
+      </c>
+      <c r="AG11">
+        <v>883</v>
+      </c>
+      <c r="AH11">
+        <v>861</v>
+      </c>
+      <c r="AI11">
+        <v>840</v>
+      </c>
+      <c r="AJ11">
+        <v>820</v>
+      </c>
+      <c r="AK11">
+        <v>797</v>
+      </c>
+      <c r="AL11">
+        <v>777</v>
+      </c>
+      <c r="AM11">
+        <v>755</v>
+      </c>
+      <c r="AN11">
+        <v>733</v>
+      </c>
+      <c r="AO11">
+        <v>712</v>
+      </c>
+      <c r="AP11">
+        <v>689</v>
+      </c>
+      <c r="AQ11">
+        <v>667</v>
+      </c>
+      <c r="AR11">
+        <v>646</v>
+      </c>
+      <c r="AS11">
+        <v>624</v>
+      </c>
+      <c r="AT11">
+        <v>603</v>
+      </c>
+      <c r="AU11">
+        <v>582</v>
+      </c>
+      <c r="AV11">
+        <v>562</v>
+      </c>
+      <c r="AW11">
+        <v>539</v>
+      </c>
+      <c r="AX11">
+        <v>519</v>
+      </c>
+      <c r="AY11">
+        <v>496</v>
+      </c>
+      <c r="AZ11">
+        <v>474</v>
+      </c>
+      <c r="BA11">
+        <v>453</v>
+      </c>
+      <c r="BB11">
+        <v>430</v>
+      </c>
+      <c r="BC11">
+        <v>409</v>
+      </c>
+      <c r="BD11">
+        <v>387</v>
+      </c>
+      <c r="BE11">
+        <v>365</v>
+      </c>
+      <c r="BF11">
+        <v>345</v>
+      </c>
+      <c r="BG11">
+        <v>323</v>
+      </c>
+      <c r="BH11">
+        <v>302</v>
+      </c>
+      <c r="BI11">
+        <v>282</v>
+      </c>
+      <c r="BJ11">
+        <v>260</v>
+      </c>
+      <c r="BK11">
+        <v>237</v>
+      </c>
+      <c r="BL11">
+        <v>217</v>
+      </c>
+      <c r="BM11">
+        <v>194</v>
+      </c>
+      <c r="BN11">
+        <v>172</v>
+      </c>
+      <c r="BO11">
+        <v>151</v>
+      </c>
+      <c r="BP11">
+        <v>128</v>
+      </c>
+      <c r="BQ11">
+        <v>107</v>
+      </c>
+      <c r="BR11">
+        <v>86</v>
+      </c>
+      <c r="BS11">
+        <v>64</v>
+      </c>
+      <c r="BT11">
+        <v>44</v>
+      </c>
+      <c r="BU11">
+        <v>23</v>
+      </c>
+      <c r="BV11">
+        <v>4</v>
+      </c>
+      <c r="BW11">
+        <v>0</v>
+      </c>
+      <c r="BX11">
+        <v>0</v>
+      </c>
+      <c r="BY11">
+        <v>0</v>
+      </c>
+      <c r="BZ11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:78">
+      <c r="A12" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12">
+        <v>1401</v>
+      </c>
+      <c r="C12">
+        <v>1395</v>
+      </c>
+      <c r="D12">
+        <v>1375</v>
+      </c>
+      <c r="E12">
         <v>1352</v>
       </c>
-      <c r="P10">
-        <v>1330</v>
-      </c>
-      <c r="Q10">
-        <v>1307</v>
-      </c>
-      <c r="R10">
-        <v>1286</v>
-      </c>
-      <c r="S10">
-        <v>1264</v>
-      </c>
-      <c r="T10">
-        <v>1242</v>
-      </c>
-      <c r="U10">
-        <v>1221</v>
-      </c>
-      <c r="V10">
-        <v>1199</v>
-      </c>
-      <c r="W10">
-        <v>1179</v>
-      </c>
-      <c r="X10">
-        <v>1159</v>
-      </c>
-      <c r="Y10">
-        <v>1136</v>
-      </c>
-      <c r="Z10">
-        <v>1114</v>
-      </c>
-      <c r="AA10">
-        <v>1093</v>
-      </c>
-      <c r="AB10">
-        <v>1071</v>
-      </c>
-      <c r="AC10">
-        <v>1049</v>
-      </c>
-      <c r="AD10">
-        <v>1027</v>
-      </c>
-      <c r="AE10">
-        <v>1005</v>
-      </c>
-      <c r="AF10">
-        <v>984</v>
-      </c>
-      <c r="AG10">
-        <v>962</v>
-      </c>
-      <c r="AH10">
-        <v>940</v>
-      </c>
-      <c r="AI10">
-        <v>919</v>
-      </c>
-      <c r="AJ10">
-        <v>899</v>
-      </c>
-      <c r="AK10">
-        <v>876</v>
-      </c>
-      <c r="AL10">
-        <v>856</v>
-      </c>
-      <c r="AM10">
-        <v>834</v>
-      </c>
-      <c r="AN10">
-        <v>812</v>
-      </c>
-      <c r="AO10">
-        <v>791</v>
-      </c>
-      <c r="AP10">
-        <v>768</v>
-      </c>
-      <c r="AQ10">
-        <v>746</v>
-      </c>
-      <c r="AR10">
-        <v>725</v>
-      </c>
-      <c r="AS10">
-        <v>703</v>
-      </c>
-      <c r="AT10">
-        <v>682</v>
-      </c>
-      <c r="AU10">
-        <v>661</v>
-      </c>
-      <c r="AV10">
-        <v>641</v>
-      </c>
-      <c r="AW10">
-        <v>618</v>
-      </c>
-      <c r="AX10">
-        <v>598</v>
-      </c>
-      <c r="AY10">
-        <v>575</v>
-      </c>
-      <c r="AZ10">
-        <v>553</v>
-      </c>
-      <c r="BA10">
-        <v>532</v>
-      </c>
-      <c r="BB10">
-        <v>509</v>
-      </c>
-      <c r="BC10">
-        <v>488</v>
-      </c>
-      <c r="BD10">
-        <v>466</v>
-      </c>
-      <c r="BE10">
-        <v>444</v>
-      </c>
-      <c r="BF10">
-        <v>424</v>
-      </c>
-      <c r="BG10">
-        <v>402</v>
-      </c>
-      <c r="BH10">
-        <v>381</v>
-      </c>
-      <c r="BI10">
-        <v>361</v>
-      </c>
-      <c r="BJ10">
-        <v>339</v>
-      </c>
-      <c r="BK10">
-        <v>316</v>
-      </c>
-      <c r="BL10">
-        <v>296</v>
-      </c>
-      <c r="BM10">
-        <v>273</v>
-      </c>
-      <c r="BN10">
-        <v>251</v>
-      </c>
-      <c r="BO10">
-        <v>230</v>
-      </c>
-      <c r="BP10">
-        <v>207</v>
-      </c>
-      <c r="BQ10">
-        <v>186</v>
-      </c>
-      <c r="BR10">
-        <v>165</v>
-      </c>
-      <c r="BS10">
-        <v>143</v>
-      </c>
-      <c r="BT10">
-        <v>123</v>
-      </c>
-      <c r="BU10">
-        <v>102</v>
-      </c>
-      <c r="BV10">
-        <v>81</v>
-      </c>
-      <c r="BW10">
-        <v>59</v>
-      </c>
-      <c r="BX10">
-        <v>38</v>
-      </c>
-      <c r="BY10">
-        <v>15</v>
+      <c r="F12">
+        <v>1343</v>
+      </c>
+      <c r="G12">
+        <v>1343</v>
+      </c>
+      <c r="H12">
+        <v>1343</v>
+      </c>
+      <c r="I12">
+        <v>1343</v>
+      </c>
+      <c r="J12">
+        <v>1343</v>
+      </c>
+      <c r="K12">
+        <v>1343</v>
+      </c>
+      <c r="L12">
+        <v>1337</v>
+      </c>
+      <c r="M12">
+        <v>1315</v>
+      </c>
+      <c r="N12">
+        <v>1294</v>
+      </c>
+      <c r="O12">
+        <v>1273</v>
+      </c>
+      <c r="P12">
+        <v>1251</v>
+      </c>
+      <c r="Q12">
+        <v>1228</v>
+      </c>
+      <c r="R12">
+        <v>1207</v>
+      </c>
+      <c r="S12">
+        <v>1185</v>
+      </c>
+      <c r="T12">
+        <v>1163</v>
+      </c>
+      <c r="U12">
+        <v>1142</v>
+      </c>
+      <c r="V12">
+        <v>1120</v>
+      </c>
+      <c r="W12">
+        <v>1100</v>
+      </c>
+      <c r="X12">
+        <v>1080</v>
+      </c>
+      <c r="Y12">
+        <v>1057</v>
+      </c>
+      <c r="Z12">
+        <v>1035</v>
+      </c>
+      <c r="AA12">
+        <v>1014</v>
+      </c>
+      <c r="AB12">
+        <v>992</v>
+      </c>
+      <c r="AC12">
+        <v>970</v>
+      </c>
+      <c r="AD12">
+        <v>948</v>
+      </c>
+      <c r="AE12">
+        <v>926</v>
+      </c>
+      <c r="AF12">
+        <v>905</v>
+      </c>
+      <c r="AG12">
+        <v>883</v>
+      </c>
+      <c r="AH12">
+        <v>861</v>
+      </c>
+      <c r="AI12">
+        <v>840</v>
+      </c>
+      <c r="AJ12">
+        <v>820</v>
+      </c>
+      <c r="AK12">
+        <v>797</v>
+      </c>
+      <c r="AL12">
+        <v>777</v>
+      </c>
+      <c r="AM12">
+        <v>755</v>
+      </c>
+      <c r="AN12">
+        <v>733</v>
+      </c>
+      <c r="AO12">
+        <v>712</v>
+      </c>
+      <c r="AP12">
+        <v>689</v>
+      </c>
+      <c r="AQ12">
+        <v>667</v>
+      </c>
+      <c r="AR12">
+        <v>646</v>
+      </c>
+      <c r="AS12">
+        <v>624</v>
+      </c>
+      <c r="AT12">
+        <v>603</v>
+      </c>
+      <c r="AU12">
+        <v>582</v>
+      </c>
+      <c r="AV12">
+        <v>562</v>
+      </c>
+      <c r="AW12">
+        <v>539</v>
+      </c>
+      <c r="AX12">
+        <v>519</v>
+      </c>
+      <c r="AY12">
+        <v>496</v>
+      </c>
+      <c r="AZ12">
+        <v>474</v>
+      </c>
+      <c r="BA12">
+        <v>453</v>
+      </c>
+      <c r="BB12">
+        <v>430</v>
+      </c>
+      <c r="BC12">
+        <v>409</v>
+      </c>
+      <c r="BD12">
+        <v>387</v>
+      </c>
+      <c r="BE12">
+        <v>365</v>
+      </c>
+      <c r="BF12">
+        <v>345</v>
+      </c>
+      <c r="BG12">
+        <v>323</v>
+      </c>
+      <c r="BH12">
+        <v>302</v>
+      </c>
+      <c r="BI12">
+        <v>282</v>
+      </c>
+      <c r="BJ12">
+        <v>260</v>
+      </c>
+      <c r="BK12">
+        <v>237</v>
+      </c>
+      <c r="BL12">
+        <v>217</v>
+      </c>
+      <c r="BM12">
+        <v>194</v>
+      </c>
+      <c r="BN12">
+        <v>172</v>
+      </c>
+      <c r="BO12">
+        <v>151</v>
+      </c>
+      <c r="BP12">
+        <v>128</v>
+      </c>
+      <c r="BQ12">
+        <v>107</v>
+      </c>
+      <c r="BR12">
+        <v>86</v>
+      </c>
+      <c r="BS12">
+        <v>64</v>
+      </c>
+      <c r="BT12">
+        <v>44</v>
+      </c>
+      <c r="BU12">
+        <v>23</v>
+      </c>
+      <c r="BV12">
+        <v>4</v>
+      </c>
+      <c r="BW12">
+        <v>0</v>
+      </c>
+      <c r="BX12">
+        <v>0</v>
+      </c>
+      <c r="BY12">
+        <v>0</v>
+      </c>
+      <c r="BZ12">
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:77">
-      <c r="A11" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B11">
-        <v>1521</v>
-      </c>
-      <c r="C11">
-        <v>1515</v>
-      </c>
-      <c r="D11">
-        <v>1495</v>
-      </c>
-      <c r="E11">
-        <v>1472</v>
-      </c>
-      <c r="F11">
-        <v>1450</v>
-      </c>
-      <c r="G11">
-        <v>1429</v>
-      </c>
-      <c r="H11">
-        <v>1406</v>
-      </c>
-      <c r="I11">
-        <v>1385</v>
-      </c>
-      <c r="J11">
-        <v>1364</v>
-      </c>
-      <c r="K11">
-        <v>1342</v>
-      </c>
-      <c r="L11">
-        <v>1322</v>
-      </c>
-      <c r="M11">
-        <v>1300</v>
-      </c>
-      <c r="N11">
-        <v>1279</v>
-      </c>
-      <c r="O11">
-        <v>1258</v>
-      </c>
-      <c r="P11">
-        <v>1236</v>
-      </c>
-      <c r="Q11">
-        <v>1213</v>
-      </c>
-      <c r="R11">
-        <v>1192</v>
-      </c>
-      <c r="S11">
-        <v>1170</v>
-      </c>
-      <c r="T11">
-        <v>1148</v>
-      </c>
-      <c r="U11">
-        <v>1127</v>
-      </c>
-      <c r="V11">
-        <v>1105</v>
-      </c>
-      <c r="W11">
-        <v>1085</v>
-      </c>
-      <c r="X11">
-        <v>1065</v>
-      </c>
-      <c r="Y11">
-        <v>1042</v>
-      </c>
-      <c r="Z11">
-        <v>1020</v>
-      </c>
-      <c r="AA11">
-        <v>999</v>
-      </c>
-      <c r="AB11">
-        <v>977</v>
-      </c>
-      <c r="AC11">
-        <v>955</v>
-      </c>
-      <c r="AD11">
-        <v>933</v>
-      </c>
-      <c r="AE11">
-        <v>911</v>
-      </c>
-      <c r="AF11">
-        <v>890</v>
-      </c>
-      <c r="AG11">
-        <v>868</v>
-      </c>
-      <c r="AH11">
-        <v>846</v>
-      </c>
-      <c r="AI11">
-        <v>825</v>
-      </c>
-      <c r="AJ11">
-        <v>805</v>
-      </c>
-      <c r="AK11">
-        <v>782</v>
-      </c>
-      <c r="AL11">
-        <v>762</v>
-      </c>
-      <c r="AM11">
-        <v>740</v>
-      </c>
-      <c r="AN11">
-        <v>718</v>
-      </c>
-      <c r="AO11">
-        <v>697</v>
-      </c>
-      <c r="AP11">
-        <v>674</v>
-      </c>
-      <c r="AQ11">
-        <v>652</v>
-      </c>
-      <c r="AR11">
-        <v>631</v>
-      </c>
-      <c r="AS11">
-        <v>609</v>
-      </c>
-      <c r="AT11">
-        <v>588</v>
-      </c>
-      <c r="AU11">
-        <v>567</v>
-      </c>
-      <c r="AV11">
-        <v>547</v>
-      </c>
-      <c r="AW11">
-        <v>524</v>
-      </c>
-      <c r="AX11">
-        <v>504</v>
-      </c>
-      <c r="AY11">
-        <v>481</v>
-      </c>
-      <c r="AZ11">
-        <v>459</v>
-      </c>
-      <c r="BA11">
-        <v>438</v>
-      </c>
-      <c r="BB11">
-        <v>415</v>
-      </c>
-      <c r="BC11">
-        <v>394</v>
-      </c>
-      <c r="BD11">
-        <v>372</v>
-      </c>
-      <c r="BE11">
-        <v>350</v>
-      </c>
-      <c r="BF11">
-        <v>330</v>
-      </c>
-      <c r="BG11">
-        <v>308</v>
-      </c>
-      <c r="BH11">
-        <v>287</v>
-      </c>
-      <c r="BI11">
-        <v>267</v>
-      </c>
-      <c r="BJ11">
-        <v>245</v>
-      </c>
-      <c r="BK11">
-        <v>222</v>
-      </c>
-      <c r="BL11">
-        <v>202</v>
-      </c>
-      <c r="BM11">
-        <v>179</v>
-      </c>
-      <c r="BN11">
-        <v>157</v>
-      </c>
-      <c r="BO11">
-        <v>136</v>
-      </c>
-      <c r="BP11">
-        <v>113</v>
-      </c>
-      <c r="BQ11">
-        <v>92</v>
-      </c>
-      <c r="BR11">
-        <v>71</v>
-      </c>
-      <c r="BS11">
-        <v>49</v>
-      </c>
-      <c r="BT11">
-        <v>29</v>
-      </c>
-      <c r="BU11">
-        <v>8</v>
-      </c>
-      <c r="BV11">
-        <v>0</v>
-      </c>
-      <c r="BW11">
-        <v>0</v>
-      </c>
-      <c r="BX11">
-        <v>0</v>
-      </c>
-      <c r="BY11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:77">
-      <c r="A12" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B12">
-        <v>1386</v>
-      </c>
-      <c r="C12">
-        <v>1380</v>
-      </c>
-      <c r="D12">
-        <v>1360</v>
-      </c>
-      <c r="E12">
-        <v>1337</v>
-      </c>
-      <c r="F12">
-        <v>1328</v>
-      </c>
-      <c r="G12">
-        <v>1328</v>
-      </c>
-      <c r="H12">
-        <v>1328</v>
-      </c>
-      <c r="I12">
-        <v>1328</v>
-      </c>
-      <c r="J12">
-        <v>1328</v>
-      </c>
-      <c r="K12">
-        <v>1328</v>
-      </c>
-      <c r="L12">
-        <v>1322</v>
-      </c>
-      <c r="M12">
-        <v>1300</v>
-      </c>
-      <c r="N12">
-        <v>1279</v>
-      </c>
-      <c r="O12">
-        <v>1258</v>
-      </c>
-      <c r="P12">
-        <v>1236</v>
-      </c>
-      <c r="Q12">
-        <v>1213</v>
-      </c>
-      <c r="R12">
-        <v>1192</v>
-      </c>
-      <c r="S12">
-        <v>1170</v>
-      </c>
-      <c r="T12">
-        <v>1148</v>
-      </c>
-      <c r="U12">
-        <v>1127</v>
-      </c>
-      <c r="V12">
-        <v>1105</v>
-      </c>
-      <c r="W12">
-        <v>1085</v>
-      </c>
-      <c r="X12">
-        <v>1065</v>
-      </c>
-      <c r="Y12">
-        <v>1042</v>
-      </c>
-      <c r="Z12">
-        <v>1020</v>
-      </c>
-      <c r="AA12">
-        <v>999</v>
-      </c>
-      <c r="AB12">
-        <v>977</v>
-      </c>
-      <c r="AC12">
-        <v>955</v>
-      </c>
-      <c r="AD12">
-        <v>933</v>
-      </c>
-      <c r="AE12">
-        <v>911</v>
-      </c>
-      <c r="AF12">
-        <v>890</v>
-      </c>
-      <c r="AG12">
-        <v>868</v>
-      </c>
-      <c r="AH12">
-        <v>846</v>
-      </c>
-      <c r="AI12">
-        <v>825</v>
-      </c>
-      <c r="AJ12">
-        <v>805</v>
-      </c>
-      <c r="AK12">
-        <v>782</v>
-      </c>
-      <c r="AL12">
-        <v>762</v>
-      </c>
-      <c r="AM12">
-        <v>740</v>
-      </c>
-      <c r="AN12">
-        <v>718</v>
-      </c>
-      <c r="AO12">
-        <v>697</v>
-      </c>
-      <c r="AP12">
-        <v>674</v>
-      </c>
-      <c r="AQ12">
-        <v>652</v>
-      </c>
-      <c r="AR12">
-        <v>631</v>
-      </c>
-      <c r="AS12">
-        <v>609</v>
-      </c>
-      <c r="AT12">
-        <v>588</v>
-      </c>
-      <c r="AU12">
-        <v>567</v>
-      </c>
-      <c r="AV12">
-        <v>547</v>
-      </c>
-      <c r="AW12">
-        <v>524</v>
-      </c>
-      <c r="AX12">
-        <v>504</v>
-      </c>
-      <c r="AY12">
-        <v>481</v>
-      </c>
-      <c r="AZ12">
-        <v>459</v>
-      </c>
-      <c r="BA12">
-        <v>438</v>
-      </c>
-      <c r="BB12">
-        <v>415</v>
-      </c>
-      <c r="BC12">
-        <v>394</v>
-      </c>
-      <c r="BD12">
-        <v>372</v>
-      </c>
-      <c r="BE12">
-        <v>350</v>
-      </c>
-      <c r="BF12">
-        <v>330</v>
-      </c>
-      <c r="BG12">
-        <v>308</v>
-      </c>
-      <c r="BH12">
-        <v>287</v>
-      </c>
-      <c r="BI12">
-        <v>267</v>
-      </c>
-      <c r="BJ12">
-        <v>245</v>
-      </c>
-      <c r="BK12">
-        <v>222</v>
-      </c>
-      <c r="BL12">
-        <v>202</v>
-      </c>
-      <c r="BM12">
-        <v>179</v>
-      </c>
-      <c r="BN12">
-        <v>157</v>
-      </c>
-      <c r="BO12">
-        <v>136</v>
-      </c>
-      <c r="BP12">
-        <v>113</v>
-      </c>
-      <c r="BQ12">
-        <v>92</v>
-      </c>
-      <c r="BR12">
-        <v>71</v>
-      </c>
-      <c r="BS12">
-        <v>49</v>
-      </c>
-      <c r="BT12">
-        <v>29</v>
-      </c>
-      <c r="BU12">
-        <v>8</v>
-      </c>
-      <c r="BV12">
-        <v>0</v>
-      </c>
-      <c r="BW12">
-        <v>0</v>
-      </c>
-      <c r="BX12">
-        <v>0</v>
-      </c>
-      <c r="BY12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:77">
+    <row r="13" spans="1:78">
       <c r="A13" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B13">
         <v>135</v>
@@ -3185,40 +3218,43 @@
       <c r="BY13">
         <v>0</v>
       </c>
+      <c r="BZ13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:77" s="3" customFormat="1">
+    <row r="14" spans="1:78" s="3" customFormat="1">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B14" s="3">
-        <v>91.12</v>
+        <v>91.20999999999999</v>
       </c>
       <c r="C14" s="3">
-        <v>91.09</v>
+        <v>91.18000000000001</v>
       </c>
       <c r="D14" s="3">
-        <v>90.97</v>
+        <v>91.06</v>
       </c>
       <c r="E14" s="3">
-        <v>90.83</v>
+        <v>90.92</v>
       </c>
       <c r="F14" s="3">
-        <v>91.59</v>
+        <v>91.67</v>
       </c>
       <c r="G14" s="3">
-        <v>92.93000000000001</v>
+        <v>93.01000000000001</v>
       </c>
       <c r="H14" s="3">
-        <v>94.45</v>
+        <v>94.51000000000001</v>
       </c>
       <c r="I14" s="3">
-        <v>95.88</v>
+        <v>95.93000000000001</v>
       </c>
       <c r="J14" s="3">
-        <v>97.36</v>
+        <v>97.39</v>
       </c>
       <c r="K14" s="3">
-        <v>98.95999999999999</v>
+        <v>98.97</v>
       </c>
       <c r="L14" s="3">
         <v>100</v>
@@ -3406,40 +3442,43 @@
       <c r="BU14" s="3">
         <v>100</v>
       </c>
+      <c r="BV14" s="3">
+        <v>100</v>
+      </c>
     </row>
-    <row r="15" spans="1:77" s="4" customFormat="1">
+    <row r="15" spans="1:78" s="4" customFormat="1">
       <c r="A15" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B15" s="4">
-        <v>8.880000000000001</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="C15" s="4">
-        <v>8.91</v>
+        <v>8.82</v>
       </c>
       <c r="D15" s="4">
-        <v>9.029999999999999</v>
+        <v>8.94</v>
       </c>
       <c r="E15" s="4">
-        <v>9.17</v>
+        <v>9.08</v>
       </c>
       <c r="F15" s="4">
-        <v>8.41</v>
+        <v>8.33</v>
       </c>
       <c r="G15" s="4">
-        <v>7.07</v>
+        <v>6.99</v>
       </c>
       <c r="H15" s="4">
-        <v>5.55</v>
+        <v>5.49</v>
       </c>
       <c r="I15" s="4">
-        <v>4.12</v>
+        <v>4.07</v>
       </c>
       <c r="J15" s="4">
-        <v>2.64</v>
+        <v>2.61</v>
       </c>
       <c r="K15" s="4">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="L15" s="4">
         <v>0</v>
@@ -3627,15 +3666,18 @@
       <c r="BU15" s="4">
         <v>0</v>
       </c>
+      <c r="BV15" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:77">
+    <row r="16" spans="1:78">
       <c r="A16" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B17">
         <v>20</v>
@@ -3670,7 +3712,7 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B18">
         <v>157</v>
@@ -3705,7 +3747,7 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B19">
         <v>87.09999999999999</v>
@@ -3740,7 +3782,7 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B20">
         <v>87</v>
@@ -3775,7 +3817,7 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B21">
         <v>20</v>
